--- a/file_name.xlsx
+++ b/file_name.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Пользователь</t>
   </si>
@@ -40,25 +40,28 @@
     <t>@vzverev0</t>
   </si>
   <si>
-    <t>Одежда</t>
-  </si>
-  <si>
-    <t>Кроссовки</t>
+    <t>Техника</t>
+  </si>
+  <si>
+    <t>Аксессуары</t>
+  </si>
+  <si>
+    <t>до 2 кг</t>
   </si>
   <si>
     <t>до 1 кг</t>
   </si>
   <si>
-    <t>около 1 кг</t>
+    <t>24242</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>v124z</t>
-  </si>
-  <si>
-    <t>53gd</t>
+    <t>fsf</t>
+  </si>
+  <si>
+    <t>fwgw</t>
   </si>
   <si>
     <t>Принят</t>
@@ -465,13 +468,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>25729</v>
+        <v>4671</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -488,16 +491,16 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>9870</v>
+        <v>3480</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
